--- a/tinatest/線索.xlsx
+++ b/tinatest/線索.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\twine課程\議題遊戲\淺野水泥罷工\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\3zhiyu.github.io\tinatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>訪問角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,18 +74,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>罷工蹭飯</t>
+  </si>
+  <si>
+    <t>「吃飯隊」以契約為憑藉向工人妻子家裡蹭飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人妻子說「吃飯隊」是罷工的工人組成的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分化蟲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>親王視察</t>
+  </si>
+  <si>
+    <t>吃光存糧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人妻子說「吃飯隊」蓄意吃光她家中的存糧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人妻子說「吃飯隊」是「分化蟲」在搞事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>無法可管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罷工蹭飯</t>
-  </si>
-  <si>
-    <t>「吃飯隊」以契約為憑藉向工人妻子家裡蹭飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工人妻子說「吃飯隊」是罷工的工人組成的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -450,7 +469,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,7 +482,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -471,24 +490,43 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
     </row>

--- a/tinatest/線索.xlsx
+++ b/tinatest/線索.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>訪問角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>復工工人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,26 +81,132 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>吃光存糧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人妻子說「吃飯隊」蓄意吃光她家中的存糧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人妻子說「吃飯隊」是「分化蟲」在搞事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹭飯復工者</t>
+  </si>
+  <si>
+    <t>契約規定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契約規定復工者要負擔罷工者的生活費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃飯隊蹭飯對象是復工工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復工理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復工工人聽「總指揮部」幹部說罷工要結束才回去復工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罷工較省錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「吃飯隊」吃光存糧導致復工工人不如回去罷工，還比較省錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分化蟲搞蹭飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「分化蟲」故意放出罷工結束的消息來誤導罷工的人回去復工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復工工人猜「吃飯隊」是「分化蟲」吃垮支持罷工工人的手段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罷工組織吃飯隊</t>
+  </si>
+  <si>
+    <t>懲罰復工1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懲罰復工2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懲罰復工3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懲罰復工4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不工作支持</t>
+  </si>
+  <si>
+    <t>無法可管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契約避免糾紛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分化蟲搞事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罷工者說契約是避免引起糾紛，證明只是去吃飯而已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罷工者說吃飯隊正是罷工團組織的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「吃飯隊」故意吃光存糧懲罰復工工人，也警告那些打算復工的罷工者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「吃飯隊」故意吃光存糧懲罰復工工人，也促使部分罷工者放棄復工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「吃飯隊」故意吃光存糧懲罰不團結的復工工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「吃飯隊」會故意吃光復工工人家中存糧，讓工人跟其他罷工者放棄復工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罷工團認為復工然後貢獻所得並非最佳的罷工支持方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持罷工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復工工人支持罷工，也願意用復工所得來協助罷工者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>分化蟲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>親王視察</t>
-  </si>
-  <si>
-    <t>吃光存糧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工人妻子說「吃飯隊」蓄意吃光她家中的存糧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工人妻子說「吃飯隊」是「分化蟲」在搞事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無法可管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,6 +227,14 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -151,8 +261,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -466,68 +579,168 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/tinatest/線索.xlsx
+++ b/tinatest/線索.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>訪問角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,151 +62,172 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>拒絕無用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罷工蹭飯</t>
+  </si>
+  <si>
+    <t>「吃飯隊」以契約為憑藉向工人妻子家裡蹭飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人妻子說「吃飯隊」是罷工的工人組成的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃光存糧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人妻子說「吃飯隊」蓄意吃光她家中的存糧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人妻子說「吃飯隊」是「分化蟲」在搞事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹭飯復工者</t>
+  </si>
+  <si>
+    <t>契約規定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契約規定復工者要負擔罷工者的生活費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃飯隊蹭飯對象是復工工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復工理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復工工人聽「總指揮部」幹部說罷工要結束才回去復工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罷工較省錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「吃飯隊」吃光存糧導致復工工人不如回去罷工，還比較省錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分化蟲搞蹭飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「分化蟲」故意放出罷工結束的消息來誤導罷工的人回去復工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復工工人猜「吃飯隊」是「分化蟲」吃垮支持罷工工人的手段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罷工組織吃飯隊</t>
+  </si>
+  <si>
+    <t>懲罰復工1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懲罰復工2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懲罰復工3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懲罰復工4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不工作支持</t>
+  </si>
+  <si>
+    <t>無法可管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契約避免糾紛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分化蟲搞事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罷工者說契約是避免引起糾紛，證明只是去吃飯而已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罷工者說吃飯隊正是罷工團組織的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「吃飯隊」故意吃光存糧懲罰復工工人，也警告那些打算復工的罷工者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「吃飯隊」故意吃光存糧懲罰復工工人，也促使部分罷工者放棄復工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「吃飯隊」故意吃光存糧懲罰不團結的復工工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「吃飯隊」會故意吃光復工工人家中存糧，讓工人跟其他罷工者放棄復工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罷工團認為復工然後貢獻所得並非最佳的罷工支持方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持罷工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復工工人支持罷工，也願意用復工所得來協助罷工者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分化蟲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【結局】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出「吃飯隊」的真實身分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出「吃飯隊」四處蹭飯的真正原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>採訪到能證實連警察都管不了的訪問內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>契約蹭飯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拒絕無用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罷工蹭飯</t>
-  </si>
-  <si>
-    <t>「吃飯隊」以契約為憑藉向工人妻子家裡蹭飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工人妻子說「吃飯隊」是罷工的工人組成的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃光存糧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工人妻子說「吃飯隊」蓄意吃光她家中的存糧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工人妻子說「吃飯隊」是「分化蟲」在搞事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蹭飯復工者</t>
-  </si>
-  <si>
-    <t>契約規定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契約規定復工者要負擔罷工者的生活費</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃飯隊蹭飯對象是復工工人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>復工理由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>復工工人聽「總指揮部」幹部說罷工要結束才回去復工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罷工較省錢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「吃飯隊」吃光存糧導致復工工人不如回去罷工，還比較省錢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分化蟲搞蹭飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「分化蟲」故意放出罷工結束的消息來誤導罷工的人回去復工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>復工工人猜「吃飯隊」是「分化蟲」吃垮支持罷工工人的手段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罷工組織吃飯隊</t>
-  </si>
-  <si>
-    <t>懲罰復工1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懲罰復工2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懲罰復工3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懲罰復工4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不工作支持</t>
-  </si>
-  <si>
-    <t>無法可管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契約避免糾紛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分化蟲搞事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罷工者說契約是避免引起糾紛，證明只是去吃飯而已</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罷工者說吃飯隊正是罷工團組織的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「吃飯隊」故意吃光存糧懲罰復工工人，也警告那些打算復工的罷工者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「吃飯隊」故意吃光存糧懲罰復工工人，也促使部分罷工者放棄復工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「吃飯隊」故意吃光存糧懲罰不團結的復工工人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「吃飯隊」會故意吃光復工工人家中存糧，讓工人跟其他罷工者放棄復工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罷工團認為復工然後貢獻所得並非最佳的罷工支持方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持罷工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>復工工人支持罷工，也願意用復工所得來協助罷工者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分化蟲</t>
+    <t>契約蹭飯
+罷工組織吃飯隊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,12 +282,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -579,15 +603,15 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -595,7 +619,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -603,26 +627,26 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,58 +654,58 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,58 +713,81 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/tinatest/線索.xlsx
+++ b/tinatest/線索.xlsx
@@ -73,19 +73,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工人妻子說「吃飯隊」是罷工的工人組成的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吃光存糧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工人妻子說「吃飯隊」蓄意吃光她家中的存糧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工人妻子說「吃飯隊」是「分化蟲」在搞事</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,6 +216,18 @@
   <si>
     <t>契約蹭飯
 罷工組織吃飯隊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人妻子說「吃飯隊」裡有罷工的工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人妻子說「吃飯隊」蓄意吃光她家中的存糧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人妻子認為「吃飯隊」很可能是被淺野洋灰收買的「分化蟲」</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +575,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -603,7 +603,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -630,23 +630,23 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,58 +654,58 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -713,81 +713,81 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/tinatest/線索.xlsx
+++ b/tinatest/線索.xlsx
@@ -69,10 +69,6 @@
     <t>罷工蹭飯</t>
   </si>
   <si>
-    <t>「吃飯隊」以契約為憑藉向工人妻子家裡蹭飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吃光存糧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吃飯隊蹭飯對象是復工工人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>復工理由</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,9 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>罷工組織吃飯隊</t>
-  </si>
-  <si>
     <t>懲罰復工1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,10 +168,6 @@
   </si>
   <si>
     <t>罷工團認為復工然後貢獻所得並非最佳的罷工支持方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持罷工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,6 +213,22 @@
   </si>
   <si>
     <t>工人妻子認為「吃飯隊」很可能是被淺野洋灰收買的「分化蟲」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罷工組織吃飯隊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持罷工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃飯隊可依據契約合法向復工工人蹭飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「吃飯隊」以契約作為向工人家裡蹭飯的正當理由</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -602,12 +603,6 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -619,7 +614,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -630,23 +625,23 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,58 +649,58 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -713,81 +708,89 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>31</v>
+      <c r="B16" t="s">
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>25</v>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>29</v>
+      <c r="B21" t="s">
+        <v>25</v>
       </c>
       <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="82.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
